--- a/DungeonsGame/Assets/art/Resources/database/group.xlsx
+++ b/DungeonsGame/Assets/art/Resources/database/group.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12648" windowHeight="7548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12648" windowHeight="7548" tabRatio="265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,34 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1yxxx为items(y为分类标识,xxx为条目标识)
+2yyxx为levels(yy为关卡标识,xx为房间标识)
+3yxxx为group（y为分类标识，xxx为条目标识）</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -51,8 +79,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 为独立掉落
-1 为圆桌掉落</t>
+0 为独立掉落:可能
+1 为圆桌掉落:必然
+2 为循环掉落:Pool
+</t>
         </r>
       </text>
     </comment>
@@ -61,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Intervals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RelationType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +130,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,9 +203,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,390 +490,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10001</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-      <c r="E3">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>31001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
         <v>10000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1000</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3" s="1">
+        <v>13001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>10002</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>13002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13002</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>500</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10002</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>500</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>20003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10002</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>500</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>20004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10002</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>500</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>20005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10002</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>500</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>20006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10002</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>500</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>20007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10003</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1000</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>20008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10003</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1000</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>20009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10003</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1000</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>20010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10003</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1000</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>20011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10004</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>2000</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>20012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10004</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>2000</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>20013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10004</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2000</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>20014</v>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
